--- a/biology/Zoologie/Berger_des_Tatras/Berger_des_Tatras.xlsx
+++ b/biology/Zoologie/Berger_des_Tatras/Berger_des_Tatras.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le berger des Tatras, aussi nommé berger de Podhale ((pl)Polski Owczarek Podhalański) est un chien de berger originaire de Pologne. Il fut reconnu au XVIIIe siècle.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le berger des Tatras (ou berger de Podhale) est un ancestral protecteur de troupeaux, utilisé essentiellement dans le sud montagneux de la Pologne face aux loups, aux lynx et aux ours qui cohabitent avec l’homme dans le parc national des Tatras. Plus récemment en Amérique du Nord, il est également utilisé à des fins militaires et policières.
 Il descend des molosses venus d’Asie lors des « invasions barbares ».
@@ -546,7 +560,9 @@
           <t>Au quotidien</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Intelligent, calme et serein, c’est un chien qui s’adapte facilement au quotidien de sa famille, autrement dit son troupeau.
 Naturellement méfiant envers les étrangers mais jamais excessif, son instinct lui permet de remplir parfaitement son rôle de protecteur : une personne invitée à pénétrer sur votre terrain sera acceptée par lui, mais en cas de nouvel essai en votre absence, le berger des Tatras la considérera comme un inconnu lambda, et la dissuadera de s'approcher de manière redoutable.
